--- a/Salary.xlsx
+++ b/Salary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Freelance\Freelance_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C7EB05-63A5-411D-9090-8006209F50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA9725E-C065-423E-89CE-C7569D5FAEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="39">
   <si>
     <t>+ Viết script automation</t>
   </si>
@@ -1940,7 +1940,7 @@
   <dimension ref="B2:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2114,11 +2114,11 @@
       <c r="B18" s="3">
         <v>44756</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
+      <c r="C18" s="5">
+        <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -2314,11 +2314,11 @@
       </c>
       <c r="C36" s="19">
         <f>SUM(C5:C35)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36" s="21">
         <f>C36*D2*10</f>
-        <v>944200</v>
+        <v>1416300</v>
       </c>
     </row>
   </sheetData>

--- a/Salary.xlsx
+++ b/Salary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Freelance\Freelance_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Freelance\Freelance_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA9725E-C065-423E-89CE-C7569D5FAEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CACCC8-4381-4194-A12F-5902DE27F496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="42">
   <si>
     <t>+ Viết script automation</t>
   </si>
@@ -76,7 +76,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -91,7 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -205,6 +205,27 @@
   <si>
     <t>19. Hiện thông tin account trên log  (Done)</t>
   </si>
+  <si>
+    <t>23. Hiển thị list data trên admin 
+        -&gt; Hiển thị list code (Done)
+        -&gt; Có thể idit (offer a Hải k edit status), xóa
+        -&gt; Tự động update list (Done)
+        -&gt; Có thể filter</t>
+  </si>
+  <si>
+    <t>21. Thêm key xác thực, đã xài cho TK nào, nếu thành công mới set key thành đã xài (80%, đã xong gen code &lt;=50 valid code) 
+ -  key, status (xài hay chưa), ghi chú, hiển thị trên admin luôn, có filter --&gt; Còn thiếu filter và hiển thị trên site admin (20% còn lại + point 23)
+        -&gt; Thêm check valid, nếu invalid thì vẫn cho add thêm code. (Done)
+        -&gt; Merge vô login để thêm 1 chỗ nhập ver code (Done)
+        -&gt; Check code có trên DB không, valid k? (Done)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. Thêm key xác thực, đã xài cho TK nào, nếu thành công mới set key thành đã xài (80%, đã xong gen code &lt;=50 valid code) 
+ -  key, status (xài hay chưa), ghi chú, hiển thị trên admin luôn, có filter --&gt; Còn thiếu filter và hiển thị trên site admin (20% còn lại + point 23)
+        -&gt; Thêm check valid, nếu invalid thì vẫn cho add thêm code. (Done)
+        -&gt; Merge vô login để thêm 1 chỗ nhập ver code 
+        -&gt; Check code có trên DB không, valid k? </t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +241,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +249,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,21 +257,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -673,14 +694,14 @@
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16">
@@ -710,7 +731,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44772</v>
       </c>
@@ -739,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>45138</v>
       </c>
@@ -750,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44774</v>
       </c>
@@ -762,7 +783,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44775</v>
       </c>
@@ -773,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44776</v>
       </c>
@@ -785,7 +806,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44777</v>
       </c>
@@ -796,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44778</v>
       </c>
@@ -805,7 +826,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44779</v>
       </c>
@@ -814,7 +835,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44780</v>
       </c>
@@ -825,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44781</v>
       </c>
@@ -836,7 +857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44782</v>
       </c>
@@ -847,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44783</v>
       </c>
@@ -858,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44784</v>
       </c>
@@ -869,7 +890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44785</v>
       </c>
@@ -878,7 +899,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44786</v>
       </c>
@@ -889,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44787</v>
       </c>
@@ -900,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44788</v>
       </c>
@@ -911,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44789</v>
       </c>
@@ -920,7 +941,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44790</v>
       </c>
@@ -929,7 +950,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44791</v>
       </c>
@@ -938,7 +959,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44792</v>
       </c>
@@ -947,7 +968,7 @@
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44793</v>
       </c>
@@ -958,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44794</v>
       </c>
@@ -969,7 +990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44795</v>
       </c>
@@ -980,7 +1001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44796</v>
       </c>
@@ -989,7 +1010,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44797</v>
       </c>
@@ -1000,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44798</v>
       </c>
@@ -1011,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44799</v>
       </c>
@@ -1020,7 +1041,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>44800</v>
       </c>
@@ -1031,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>44801</v>
       </c>
@@ -1042,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>44802</v>
       </c>
@@ -1051,7 +1072,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>44803</v>
       </c>
@@ -1062,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>44804</v>
       </c>
@@ -1071,7 +1092,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="9" t="s">
         <v>6</v>
       </c>
@@ -1084,73 +1105,73 @@
         <v>10759400</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
     </row>
   </sheetData>
@@ -1172,20 +1193,20 @@
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D2" s="20">
         <v>23605</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>44682</v>
       </c>
@@ -1207,7 +1228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44683</v>
       </c>
@@ -1218,7 +1239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44684</v>
       </c>
@@ -1229,7 +1250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44685</v>
       </c>
@@ -1240,7 +1261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44686</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44687</v>
       </c>
@@ -1262,7 +1283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44688</v>
       </c>
@@ -1273,7 +1294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44689</v>
       </c>
@@ -1284,7 +1305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44690</v>
       </c>
@@ -1295,7 +1316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44691</v>
       </c>
@@ -1306,7 +1327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44692</v>
       </c>
@@ -1317,7 +1338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44693</v>
       </c>
@@ -1328,7 +1349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44694</v>
       </c>
@@ -1339,7 +1360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44695</v>
       </c>
@@ -1350,7 +1371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44696</v>
       </c>
@@ -1361,7 +1382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44697</v>
       </c>
@@ -1372,7 +1393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44698</v>
       </c>
@@ -1383,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44699</v>
       </c>
@@ -1394,7 +1415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44700</v>
       </c>
@@ -1405,7 +1426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44701</v>
       </c>
@@ -1416,7 +1437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44702</v>
       </c>
@@ -1427,7 +1448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44703</v>
       </c>
@@ -1438,7 +1459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44704</v>
       </c>
@@ -1449,7 +1470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44705</v>
       </c>
@@ -1460,7 +1481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44706</v>
       </c>
@@ -1471,7 +1492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44707</v>
       </c>
@@ -1482,7 +1503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44708</v>
       </c>
@@ -1493,7 +1514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44709</v>
       </c>
@@ -1504,7 +1525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44710</v>
       </c>
@@ -1515,7 +1536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>44711</v>
       </c>
@@ -1526,7 +1547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>44712</v>
       </c>
@@ -1537,7 +1558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>6</v>
       </c>
@@ -1563,20 +1584,20 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D2" s="20">
         <v>23605</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1587,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>44713</v>
       </c>
@@ -1598,7 +1619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44714</v>
       </c>
@@ -1609,7 +1630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44715</v>
       </c>
@@ -1620,7 +1641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44716</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44717</v>
       </c>
@@ -1642,7 +1663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44718</v>
       </c>
@@ -1653,7 +1674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44719</v>
       </c>
@@ -1664,7 +1685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44720</v>
       </c>
@@ -1675,7 +1696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44721</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44722</v>
       </c>
@@ -1697,7 +1718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44723</v>
       </c>
@@ -1708,7 +1729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44724</v>
       </c>
@@ -1719,7 +1740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44725</v>
       </c>
@@ -1730,7 +1751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44726</v>
       </c>
@@ -1741,7 +1762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44727</v>
       </c>
@@ -1752,7 +1773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44728</v>
       </c>
@@ -1763,7 +1784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44729</v>
       </c>
@@ -1774,7 +1795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44730</v>
       </c>
@@ -1785,7 +1806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44731</v>
       </c>
@@ -1796,7 +1817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44732</v>
       </c>
@@ -1807,7 +1828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44733</v>
       </c>
@@ -1818,7 +1839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44734</v>
       </c>
@@ -1829,7 +1850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44735</v>
       </c>
@@ -1840,7 +1861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44736</v>
       </c>
@@ -1851,7 +1872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44737</v>
       </c>
@@ -1862,7 +1883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44738</v>
       </c>
@@ -1873,7 +1894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44739</v>
       </c>
@@ -1884,7 +1905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44740</v>
       </c>
@@ -1895,7 +1916,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44741</v>
       </c>
@@ -1906,7 +1927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>44742</v>
       </c>
@@ -1917,7 +1938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>6</v>
       </c>
@@ -1939,24 +1960,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAE7A80-E863-4FF9-B8A8-0AAA7CBAA458}">
   <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D2" s="20">
         <v>23605</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +1988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>44743</v>
       </c>
@@ -1978,7 +1999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44744</v>
       </c>
@@ -1989,7 +2010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44745</v>
       </c>
@@ -2000,7 +2021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44746</v>
       </c>
@@ -2011,7 +2032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44747</v>
       </c>
@@ -2022,7 +2043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44748</v>
       </c>
@@ -2033,7 +2054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44749</v>
       </c>
@@ -2044,7 +2065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44750</v>
       </c>
@@ -2055,7 +2076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44751</v>
       </c>
@@ -2066,7 +2087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44752</v>
       </c>
@@ -2077,7 +2098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44753</v>
       </c>
@@ -2088,7 +2109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44754</v>
       </c>
@@ -2099,7 +2120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44755</v>
       </c>
@@ -2110,7 +2131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44756</v>
       </c>
@@ -2118,32 +2139,32 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44757</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
+      <c r="C19" s="5">
+        <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44758</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
+      <c r="C20" s="5">
+        <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44759</v>
       </c>
@@ -2154,7 +2175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44760</v>
       </c>
@@ -2165,7 +2186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44761</v>
       </c>
@@ -2176,7 +2197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44762</v>
       </c>
@@ -2187,7 +2208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44763</v>
       </c>
@@ -2198,7 +2219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44764</v>
       </c>
@@ -2209,7 +2230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44765</v>
       </c>
@@ -2220,7 +2241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44766</v>
       </c>
@@ -2231,7 +2252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44767</v>
       </c>
@@ -2242,7 +2263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44768</v>
       </c>
@@ -2253,7 +2274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44769</v>
       </c>
@@ -2264,7 +2285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44770</v>
       </c>
@@ -2275,7 +2296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44771</v>
       </c>
@@ -2286,7 +2307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>44772</v>
       </c>
@@ -2297,7 +2318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>44773</v>
       </c>
@@ -2308,17 +2329,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="19">
         <f>SUM(C5:C35)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36" s="21">
         <f>C36*D2*10</f>
-        <v>1416300</v>
+        <v>2124450</v>
       </c>
     </row>
   </sheetData>
@@ -2334,14 +2355,14 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16">
@@ -2371,7 +2392,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2386,7 +2407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44805</v>
       </c>
@@ -2400,7 +2421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44806</v>
       </c>
@@ -2409,7 +2430,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44807</v>
       </c>
@@ -2419,7 +2440,7 @@
       <c r="D8" s="5"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44808</v>
       </c>
@@ -2430,7 +2451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44809</v>
       </c>
@@ -2440,7 +2461,7 @@
       <c r="D10" s="5"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44810</v>
       </c>
@@ -2449,7 +2470,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44811</v>
       </c>
@@ -2460,7 +2481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44812</v>
       </c>
@@ -2471,7 +2492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44813</v>
       </c>
@@ -2482,7 +2503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44814</v>
       </c>
@@ -2493,7 +2514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44815</v>
       </c>
@@ -2504,7 +2525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44816</v>
       </c>
@@ -2513,7 +2534,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44817</v>
       </c>
@@ -2524,7 +2545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44818</v>
       </c>
@@ -2535,7 +2556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44819</v>
       </c>
@@ -2546,7 +2567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44820</v>
       </c>
@@ -2555,7 +2576,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44821</v>
       </c>
@@ -2566,7 +2587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44822</v>
       </c>
@@ -2577,7 +2598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44823</v>
       </c>
@@ -2586,7 +2607,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44824</v>
       </c>
@@ -2595,7 +2616,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44825</v>
       </c>
@@ -2604,7 +2625,7 @@
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44826</v>
       </c>
@@ -2615,7 +2636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44827</v>
       </c>
@@ -2626,7 +2647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44828</v>
       </c>
@@ -2637,7 +2658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44829</v>
       </c>
@@ -2648,7 +2669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44830</v>
       </c>
@@ -2659,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44831</v>
       </c>
@@ -2668,7 +2689,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44832</v>
       </c>
@@ -2679,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>44833</v>
       </c>
@@ -2688,7 +2709,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>44834</v>
       </c>
@@ -2697,7 +2718,7 @@
       </c>
       <c r="D35" s="18"/>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>6</v>
       </c>
@@ -2710,73 +2731,73 @@
         <v>10525500</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
   </sheetData>
@@ -2798,14 +2819,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16">
@@ -2835,7 +2856,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2850,7 +2871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44835</v>
       </c>
@@ -2864,7 +2885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44836</v>
       </c>
@@ -2875,7 +2896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44837</v>
       </c>
@@ -2887,7 +2908,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44838</v>
       </c>
@@ -2898,7 +2919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44839</v>
       </c>
@@ -2910,7 +2931,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44840</v>
       </c>
@@ -2921,7 +2942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44841</v>
       </c>
@@ -2932,7 +2953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44842</v>
       </c>
@@ -2943,7 +2964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44843</v>
       </c>
@@ -2954,7 +2975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44844</v>
       </c>
@@ -2965,7 +2986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44845</v>
       </c>
@@ -2976,7 +2997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44846</v>
       </c>
@@ -2987,7 +3008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44847</v>
       </c>
@@ -2998,7 +3019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44848</v>
       </c>
@@ -3009,7 +3030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44849</v>
       </c>
@@ -3020,7 +3041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44850</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44851</v>
       </c>
@@ -3042,7 +3063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44852</v>
       </c>
@@ -3053,7 +3074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44853</v>
       </c>
@@ -3062,7 +3083,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44854</v>
       </c>
@@ -3073,7 +3094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44855</v>
       </c>
@@ -3084,7 +3105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44856</v>
       </c>
@@ -3095,7 +3116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44857</v>
       </c>
@@ -3106,7 +3127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44858</v>
       </c>
@@ -3117,7 +3138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44859</v>
       </c>
@@ -3128,7 +3149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44860</v>
       </c>
@@ -3139,7 +3160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44861</v>
       </c>
@@ -3150,7 +3171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44862</v>
       </c>
@@ -3161,7 +3182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>44863</v>
       </c>
@@ -3172,7 +3193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>44864</v>
       </c>
@@ -3183,7 +3204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>44865</v>
       </c>
@@ -3194,7 +3215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="9" t="s">
         <v>6</v>
       </c>
@@ -3207,73 +3228,73 @@
         <v>8771250</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
     </row>
   </sheetData>
@@ -3295,14 +3316,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16">
@@ -3332,7 +3353,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44866</v>
       </c>
@@ -3361,7 +3382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44867</v>
       </c>
@@ -3372,7 +3393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44868</v>
       </c>
@@ -3384,7 +3405,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44869</v>
       </c>
@@ -3395,7 +3416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44870</v>
       </c>
@@ -3407,7 +3428,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44871</v>
       </c>
@@ -3418,7 +3439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44872</v>
       </c>
@@ -3429,7 +3450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44873</v>
       </c>
@@ -3440,7 +3461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44874</v>
       </c>
@@ -3451,7 +3472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44875</v>
       </c>
@@ -3462,7 +3483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44876</v>
       </c>
@@ -3473,7 +3494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44877</v>
       </c>
@@ -3484,7 +3505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44878</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44879</v>
       </c>
@@ -3506,7 +3527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44880</v>
       </c>
@@ -3517,7 +3538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44881</v>
       </c>
@@ -3528,7 +3549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44882</v>
       </c>
@@ -3539,91 +3560,91 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44883</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44884</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44885</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44886</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44887</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44888</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44889</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44890</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44891</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44892</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44893</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>44894</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>44895</v>
       </c>
@@ -3632,7 +3653,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>6</v>
       </c>
@@ -3645,73 +3666,73 @@
         <v>9691500</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
   </sheetData>
@@ -3733,15 +3754,15 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16">
@@ -3771,7 +3792,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3786,7 +3807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44896</v>
       </c>
@@ -3800,7 +3821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44897</v>
       </c>
@@ -3811,7 +3832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44898</v>
       </c>
@@ -3823,7 +3844,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44899</v>
       </c>
@@ -3834,7 +3855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44900</v>
       </c>
@@ -3846,7 +3867,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44901</v>
       </c>
@@ -3857,7 +3878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44902</v>
       </c>
@@ -3869,7 +3890,7 @@
       </c>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44903</v>
       </c>
@@ -3880,7 +3901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44904</v>
       </c>
@@ -3891,7 +3912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44905</v>
       </c>
@@ -3902,7 +3923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44906</v>
       </c>
@@ -3913,7 +3934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44907</v>
       </c>
@@ -3924,7 +3945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44908</v>
       </c>
@@ -3935,7 +3956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44909</v>
       </c>
@@ -3946,7 +3967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44910</v>
       </c>
@@ -3957,7 +3978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44911</v>
       </c>
@@ -3968,7 +3989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44912</v>
       </c>
@@ -3979,7 +4000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44913</v>
       </c>
@@ -3990,7 +4011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44914</v>
       </c>
@@ -4001,7 +4022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44915</v>
       </c>
@@ -4012,7 +4033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44916</v>
       </c>
@@ -4023,7 +4044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44917</v>
       </c>
@@ -4034,7 +4055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44918</v>
       </c>
@@ -4045,7 +4066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44919</v>
       </c>
@@ -4056,7 +4077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44920</v>
       </c>
@@ -4067,7 +4088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44921</v>
       </c>
@@ -4078,7 +4099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44922</v>
       </c>
@@ -4089,7 +4110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44923</v>
       </c>
@@ -4100,7 +4121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>44924</v>
       </c>
@@ -4111,7 +4132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>44925</v>
       </c>
@@ -4122,7 +4143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>44926</v>
       </c>
@@ -4133,7 +4154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="9" t="s">
         <v>6</v>
       </c>
@@ -4146,73 +4167,73 @@
         <v>5901250</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
     </row>
   </sheetData>
@@ -4234,15 +4255,15 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16">
@@ -4272,7 +4293,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4287,7 +4308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44562</v>
       </c>
@@ -4301,7 +4322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44563</v>
       </c>
@@ -4312,7 +4333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44564</v>
       </c>
@@ -4324,7 +4345,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44565</v>
       </c>
@@ -4335,7 +4356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44566</v>
       </c>
@@ -4345,7 +4366,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44567</v>
       </c>
@@ -4354,7 +4375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44568</v>
       </c>
@@ -4364,7 +4385,7 @@
       </c>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44569</v>
       </c>
@@ -4373,7 +4394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44570</v>
       </c>
@@ -4382,7 +4403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44571</v>
       </c>
@@ -4391,7 +4412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44572</v>
       </c>
@@ -4400,7 +4421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44573</v>
       </c>
@@ -4409,7 +4430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44574</v>
       </c>
@@ -4418,7 +4439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44575</v>
       </c>
@@ -4427,7 +4448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44576</v>
       </c>
@@ -4436,7 +4457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44577</v>
       </c>
@@ -4445,7 +4466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44578</v>
       </c>
@@ -4454,7 +4475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44579</v>
       </c>
@@ -4463,7 +4484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44580</v>
       </c>
@@ -4472,7 +4493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44581</v>
       </c>
@@ -4481,7 +4502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44582</v>
       </c>
@@ -4490,7 +4511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44583</v>
       </c>
@@ -4499,7 +4520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44584</v>
       </c>
@@ -4508,7 +4529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44585</v>
       </c>
@@ -4517,7 +4538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44586</v>
       </c>
@@ -4526,7 +4547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44587</v>
       </c>
@@ -4535,7 +4556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44588</v>
       </c>
@@ -4544,7 +4565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44589</v>
       </c>
@@ -4553,7 +4574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>44590</v>
       </c>
@@ -4562,7 +4583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>44591</v>
       </c>
@@ -4571,7 +4592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>44592</v>
       </c>
@@ -4580,7 +4601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="9" t="s">
         <v>6</v>
       </c>
@@ -4593,73 +4614,73 @@
         <v>1416300</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
     </row>
   </sheetData>
@@ -4681,15 +4702,15 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16">
@@ -4719,7 +4740,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4734,7 +4755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44593</v>
       </c>
@@ -4748,7 +4769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44594</v>
       </c>
@@ -4759,7 +4780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44595</v>
       </c>
@@ -4771,7 +4792,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44596</v>
       </c>
@@ -4782,7 +4803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44597</v>
       </c>
@@ -4794,7 +4815,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44598</v>
       </c>
@@ -4805,7 +4826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44599</v>
       </c>
@@ -4817,7 +4838,7 @@
       </c>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44600</v>
       </c>
@@ -4828,7 +4849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44601</v>
       </c>
@@ -4839,7 +4860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44602</v>
       </c>
@@ -4850,7 +4871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44603</v>
       </c>
@@ -4861,7 +4882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44604</v>
       </c>
@@ -4872,7 +4893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44605</v>
       </c>
@@ -4883,7 +4904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44606</v>
       </c>
@@ -4894,7 +4915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44607</v>
       </c>
@@ -4905,7 +4926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44608</v>
       </c>
@@ -4916,7 +4937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44609</v>
       </c>
@@ -4927,7 +4948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44610</v>
       </c>
@@ -4938,7 +4959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44611</v>
       </c>
@@ -4949,7 +4970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44612</v>
       </c>
@@ -4960,7 +4981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44613</v>
       </c>
@@ -4971,7 +4992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44614</v>
       </c>
@@ -4982,7 +5003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44615</v>
       </c>
@@ -4993,7 +5014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44616</v>
       </c>
@@ -5004,7 +5025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44617</v>
       </c>
@@ -5015,7 +5036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44618</v>
       </c>
@@ -5026,7 +5047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44619</v>
       </c>
@@ -5037,7 +5058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>44620</v>
       </c>
@@ -5048,7 +5069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>6</v>
       </c>
@@ -5061,73 +5082,73 @@
         <v>2124450</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
   </sheetData>
@@ -5149,15 +5170,15 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16">
@@ -5187,7 +5208,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5202,7 +5223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44621</v>
       </c>
@@ -5216,7 +5237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44622</v>
       </c>
@@ -5227,7 +5248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44623</v>
       </c>
@@ -5239,7 +5260,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44624</v>
       </c>
@@ -5250,7 +5271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44625</v>
       </c>
@@ -5262,7 +5283,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44626</v>
       </c>
@@ -5273,7 +5294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44627</v>
       </c>
@@ -5285,7 +5306,7 @@
       </c>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44628</v>
       </c>
@@ -5296,7 +5317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44629</v>
       </c>
@@ -5307,7 +5328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44630</v>
       </c>
@@ -5318,7 +5339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44631</v>
       </c>
@@ -5329,7 +5350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44632</v>
       </c>
@@ -5340,7 +5361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44633</v>
       </c>
@@ -5351,7 +5372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44634</v>
       </c>
@@ -5362,7 +5383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44635</v>
       </c>
@@ -5373,7 +5394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44636</v>
       </c>
@@ -5384,7 +5405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44637</v>
       </c>
@@ -5395,7 +5416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44638</v>
       </c>
@@ -5406,7 +5427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44639</v>
       </c>
@@ -5417,7 +5438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44640</v>
       </c>
@@ -5428,7 +5449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44641</v>
       </c>
@@ -5439,7 +5460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44642</v>
       </c>
@@ -5450,7 +5471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44643</v>
       </c>
@@ -5461,7 +5482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44644</v>
       </c>
@@ -5472,7 +5493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44645</v>
       </c>
@@ -5483,7 +5504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44646</v>
       </c>
@@ -5494,7 +5515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44647</v>
       </c>
@@ -5505,7 +5526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44648</v>
       </c>
@@ -5516,7 +5537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>44649</v>
       </c>
@@ -5527,7 +5548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>44650</v>
       </c>
@@ -5538,7 +5559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>44651</v>
       </c>
@@ -5549,7 +5570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="9" t="s">
         <v>6</v>
       </c>
@@ -5562,73 +5583,73 @@
         <v>6963475</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
     </row>
   </sheetData>
@@ -5650,12 +5671,12 @@
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="20">
@@ -5666,7 +5687,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5681,7 +5702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>44652</v>
       </c>
@@ -5695,7 +5716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>44653</v>
       </c>
@@ -5706,7 +5727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>44654</v>
       </c>
@@ -5718,7 +5739,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>44655</v>
       </c>
@@ -5729,7 +5750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44656</v>
       </c>
@@ -5740,7 +5761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>44657</v>
       </c>
@@ -5751,7 +5772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>44658</v>
       </c>
@@ -5762,7 +5783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>44659</v>
       </c>
@@ -5773,7 +5794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>44660</v>
       </c>
@@ -5784,7 +5805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>44661</v>
       </c>
@@ -5795,7 +5816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>44662</v>
       </c>
@@ -5806,7 +5827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>44663</v>
       </c>
@@ -5817,7 +5838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>44664</v>
       </c>
@@ -5828,7 +5849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44665</v>
       </c>
@@ -5839,7 +5860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>44666</v>
       </c>
@@ -5850,7 +5871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>44667</v>
       </c>
@@ -5861,7 +5882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44668</v>
       </c>
@@ -5872,7 +5893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44669</v>
       </c>
@@ -5883,7 +5904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44670</v>
       </c>
@@ -5894,7 +5915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>44671</v>
       </c>
@@ -5905,7 +5926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>44672</v>
       </c>
@@ -5916,7 +5937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>44673</v>
       </c>
@@ -5927,7 +5948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>44674</v>
       </c>
@@ -5938,7 +5959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>44675</v>
       </c>
@@ -5949,7 +5970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>44676</v>
       </c>
@@ -5960,7 +5981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>44677</v>
       </c>
@@ -5971,7 +5992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>44678</v>
       </c>
@@ -5982,7 +6003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>44679</v>
       </c>
@@ -5993,7 +6014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>44680</v>
       </c>
@@ -6004,7 +6025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>44681</v>
       </c>
@@ -6015,7 +6036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>6</v>
       </c>
@@ -6028,7 +6049,7 @@
         <v>3304700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L45" t="s">
         <v>3</v>
       </c>
@@ -6039,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L46">
         <v>44682</v>
       </c>
@@ -6050,7 +6071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L47">
         <v>44683</v>
       </c>
@@ -6061,7 +6082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L48">
         <v>44684</v>
       </c>
@@ -6072,7 +6093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L49">
         <v>44685</v>
       </c>
@@ -6083,7 +6104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L50">
         <v>44686</v>
       </c>
@@ -6094,7 +6115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L51">
         <v>44687</v>
       </c>
@@ -6105,7 +6126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L52">
         <v>44688</v>
       </c>
@@ -6116,7 +6137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L53">
         <v>44689</v>
       </c>
@@ -6127,7 +6148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L54">
         <v>44690</v>
       </c>
@@ -6138,7 +6159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L55">
         <v>44691</v>
       </c>
@@ -6149,7 +6170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L56">
         <v>44692</v>
       </c>
@@ -6160,7 +6181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L57">
         <v>44693</v>
       </c>
@@ -6171,7 +6192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L58" s="3">
         <v>44694</v>
       </c>
@@ -6182,7 +6203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L59" s="3">
         <v>44695</v>
       </c>
@@ -6193,7 +6214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L60" s="3">
         <v>44696</v>
       </c>
@@ -6204,7 +6225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L61" s="3">
         <v>44697</v>
       </c>
@@ -6215,7 +6236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L62" s="3">
         <v>44698</v>
       </c>
@@ -6226,7 +6247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L63" s="3">
         <v>44699</v>
       </c>
@@ -6237,7 +6258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L64" s="3">
         <v>44700</v>
       </c>
@@ -6248,7 +6269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L65" s="3">
         <v>44701</v>
       </c>
@@ -6259,7 +6280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L66" s="3">
         <v>44702</v>
       </c>
@@ -6270,7 +6291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L67" s="3">
         <v>44703</v>
       </c>
@@ -6281,7 +6302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L68" s="3">
         <v>44704</v>
       </c>
@@ -6292,7 +6313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L69" s="3">
         <v>44705</v>
       </c>
@@ -6303,7 +6324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L70" s="3">
         <v>44706</v>
       </c>
@@ -6314,7 +6335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L71" s="3">
         <v>44707</v>
       </c>
@@ -6325,7 +6346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L72" s="3">
         <v>44708</v>
       </c>
@@ -6336,7 +6357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L73" s="3">
         <v>44709</v>
       </c>
@@ -6347,7 +6368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L74" s="3">
         <v>44710</v>
       </c>
@@ -6358,7 +6379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L75" s="3">
         <v>44711</v>
       </c>
@@ -6369,7 +6390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L76" s="3">
         <v>44712</v>
       </c>
@@ -6380,7 +6401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L77" s="9" t="s">
         <v>6</v>
       </c>

--- a/Salary.xlsx
+++ b/Salary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Freelance\Freelance_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CACCC8-4381-4194-A12F-5902DE27F496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8786859A-A527-40C3-A226-D49CC83FBFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="44">
   <si>
     <t>+ Viết script automation</t>
   </si>
@@ -225,6 +225,17 @@
         -&gt; Thêm check valid, nếu invalid thì vẫn cho add thêm code. (Done)
         -&gt; Merge vô login để thêm 1 chỗ nhập ver code 
         -&gt; Check code có trên DB không, valid k? </t>
+  </si>
+  <si>
+    <t>23. Hiển thị list data trên admin 
+        -&gt; Hiển thị list code (Done)
+        -&gt; Có thể idit (offer a Hải k edit status), xóa -&gt; xóa thì fix lại cái id trong database (50%)
+        -&gt; Tự động update list (Done)
+        -&gt; Có thể filter (Done)
+21. Thêm key xác thực, đã xài cho TK nào, nếu thành công mới set key thành đã xài (100%, đã xong gen code &lt;=50 valid code)</t>
+  </si>
+  <si>
+    <t>-&gt; Xóa đồng loạt 1 mảng code (Done)</t>
   </si>
 </sst>
 </file>
@@ -1960,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAE7A80-E863-4FF9-B8A8-0AAA7CBAA458}">
   <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2164,26 +2175,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>44759</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
+      <c r="C21" s="5">
+        <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44760</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>22</v>
+      <c r="C22" s="5">
+        <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -2335,11 +2346,11 @@
       </c>
       <c r="C36" s="19">
         <f>SUM(C5:C35)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="21">
         <f>C36*D2*10</f>
-        <v>2124450</v>
+        <v>3540750</v>
       </c>
     </row>
   </sheetData>

--- a/Salary.xlsx
+++ b/Salary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Freelance\Freelance_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8786859A-A527-40C3-A226-D49CC83FBFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15519D09-77D7-4E29-B8E5-3BAEE957CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,11 @@
 21. Thêm key xác thực, đã xài cho TK nào, nếu thành công mới set key thành đã xài (100%, đã xong gen code &lt;=50 valid code)</t>
   </si>
   <si>
-    <t>-&gt; Xóa đồng loạt 1 mảng code (Done)</t>
+    <t>-&gt; Hiển thị list code (Done)
+        -&gt; Có thể edit (Hỏi a Hải có edit status k?), xóa -&gt; xóa thì fix lại cái id trong database(k thực hiện đc) (Done)
+        -&gt; Tự động update list (Done)
+        -&gt; Có thể filter (Done)
+        -&gt; Xóa đồng loạt 1 mảng code (Done)</t>
   </si>
 </sst>
 </file>
@@ -1971,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAE7A80-E863-4FF9-B8A8-0AAA7CBAA458}">
   <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2186,7 +2190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44760</v>
       </c>

--- a/Salary.xlsx
+++ b/Salary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Freelance\Freelance_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15519D09-77D7-4E29-B8E5-3BAEE957CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E69D17B-578C-4CC0-895C-63993065B89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="45">
   <si>
     <t>+ Viết script automation</t>
   </si>
@@ -240,6 +240,9 @@
         -&gt; Tự động update list (Done)
         -&gt; Có thể filter (Done)
         -&gt; Xóa đồng loạt 1 mảng code (Done)</t>
+  </si>
+  <si>
+    <t>29. Khi KH đã join thành công, code sẽ đổi thành 'used' và admin không thể sửa status lại, co thể xóa (Done)</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1979,7 @@
   <dimension ref="B2:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2201,15 +2204,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>44761</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>22</v>
+      <c r="C23" s="5">
+        <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -2350,11 +2353,11 @@
       </c>
       <c r="C36" s="19">
         <f>SUM(C5:C35)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="21">
         <f>C36*D2*10</f>
-        <v>3540750</v>
+        <v>3776800</v>
       </c>
     </row>
   </sheetData>
